--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -792,7 +792,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="105.6" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="61">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -690,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="61">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -302,11 +302,15 @@
   <si>
     <t>Result VIE</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -631,9 +635,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="69.6640625" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.88671875" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="69.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="28.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
@@ -689,7 +693,10 @@
       <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -706,7 +713,10 @@
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -723,7 +733,10 @@
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -740,7 +753,10 @@
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -757,7 +773,10 @@
       <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -774,7 +793,10 @@
       <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -791,7 +813,10 @@
       <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -808,8 +833,11 @@
       <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>58</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="105.6" x14ac:dyDescent="0.25">
@@ -825,7 +853,10 @@
       <c r="D10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -842,7 +873,10 @@
       <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -859,7 +893,10 @@
       <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -876,7 +913,10 @@
       <c r="D13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -893,7 +933,10 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -910,7 +953,10 @@
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>58</v>
       </c>
     </row>

--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\GoSELL-Automation1\src\main\resources\excels\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="122">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -544,6 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -909,9 +910,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="69.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="69.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
@@ -1211,7 +1212,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -1228,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>58</v>
@@ -1258,7 +1259,9 @@
         <v>4</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="8"/>
+      <c r="F17" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1274,7 +1277,9 @@
         <v>68</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="8"/>
+      <c r="F18" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1290,7 +1295,9 @@
         <v>68</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="8"/>
+      <c r="F19" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1306,7 +1313,9 @@
         <v>68</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="8"/>
+      <c r="F20" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -1322,7 +1331,9 @@
         <v>68</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="8"/>
+      <c r="F21" t="s" s="0">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -1338,7 +1349,9 @@
         <v>68</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="8"/>
+      <c r="F22" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1354,7 +1367,9 @@
         <v>80</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="8"/>
+      <c r="F23" t="s" s="0">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -1370,7 +1385,9 @@
         <v>83</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="8"/>
+      <c r="F24" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -1386,7 +1403,9 @@
         <v>83</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="8"/>
+      <c r="F25" t="s" s="0">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -1402,7 +1421,9 @@
         <v>83</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="8"/>
+      <c r="F26" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -1418,7 +1439,9 @@
         <v>92</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="8"/>
+      <c r="F27" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -1434,7 +1457,9 @@
         <v>95</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="8"/>
+      <c r="F28" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -1450,7 +1475,9 @@
         <v>98</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="8"/>
+      <c r="F29" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
@@ -1466,7 +1493,9 @@
         <v>101</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="8"/>
+      <c r="F30" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
@@ -1482,7 +1511,9 @@
         <v>105</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="8"/>
+      <c r="F31" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -1498,7 +1529,9 @@
         <v>109</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="8"/>
+      <c r="F32" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -1514,7 +1547,9 @@
         <v>113</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="8"/>
+      <c r="F33" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
@@ -1530,7 +1565,9 @@
         <v>117</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="8"/>
+      <c r="F34" t="s" s="0">
+        <v>61</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -1546,7 +1583,9 @@
         <v>121</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="8"/>
+      <c r="F35" t="s" s="0">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>

--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="122">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -1069,7 +1069,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>58</v>

--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="122">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/src/main/resources/excels/UserProfileSFTcs.xlsx
+++ b/src/main/resources/excels/UserProfileSFTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="122">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E24" s="13"/>
       <c r="F24" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E26" s="13"/>
       <c r="F26" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
